--- a/www/partners/orders/print_tmpl/act.xlsx
+++ b/www/partners/orders/print_tmpl/act.xlsx
@@ -31,13 +31,13 @@
     <t xml:space="preserve">г. Москва </t>
   </si>
   <si>
-    <t xml:space="preserve">"11" мая 2017г.</t>
+    <t xml:space="preserve">20 июня 2017</t>
   </si>
   <si>
     <t xml:space="preserve">Центр выдачи поощрений:</t>
   </si>
   <si>
-    <t xml:space="preserve">МФЦ Красносельский, Москва, ул. Верхняя Красносельская, д.3, стр.2, </t>
+    <t xml:space="preserve">МФЦ Лианозово Москва, ул. Абрамцевская, д.3</t>
   </si>
   <si>
     <r>
@@ -59,7 +59,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> «</t>
     </r>
     <r>
       <rPr>
@@ -70,7 +70,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">__________________________________________________________________________________</t>
+      <t xml:space="preserve">Активный гражданин»</t>
     </r>
   </si>
   <si>
@@ -123,44 +123,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Абакарова Зухра Рустамовна</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, действующий на основании: «№01-1-363/15 от 17.07.2015» </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">                                                                   </t>
-    </r>
+    <t xml:space="preserve">Магазин Поощрений, действующий на основании: «№01-1-363/15 от 17.07.2015»</t>
   </si>
   <si>
     <t xml:space="preserve">АКТ ПРИЕМА-ПЕРЕДАЧИ</t>
   </si>
   <si>
-    <t xml:space="preserve">по заказу № 25460  от "03" мая 2017г.</t>
+    <t xml:space="preserve">по заказу № 654505  от 20 июня 2017</t>
   </si>
   <si>
     <t xml:space="preserve">№ п/п</t>
@@ -264,10 +233,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Наклейка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKTA-25460</t>
+    <t xml:space="preserve">Футболка детская зелёная 4XS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AКТА-654505</t>
   </si>
   <si>
     <t xml:space="preserve">Штука</t>
@@ -312,7 +281,7 @@
     <t xml:space="preserve">/</t>
   </si>
   <si>
-    <t xml:space="preserve">Абакарова Зухра Рустамовна</t>
+    <t xml:space="preserve">Магазин Поощрений</t>
   </si>
   <si>
     <t xml:space="preserve">                                                     </t>
@@ -321,7 +290,7 @@
     <t xml:space="preserve">Вышеперечисленный товар принял. Претензий по составу, размеру, количеству и качеству  не имею. Осведомлен, что товар обмену и возврату не подлежит.</t>
   </si>
   <si>
-    <t xml:space="preserve">Активный Гражданин </t>
+    <t xml:space="preserve">Васильева Елена Алексеевна</t>
   </si>
   <si>
     <t xml:space="preserve">подпись</t>
@@ -336,7 +305,7 @@
     <t xml:space="preserve">Email:</t>
   </si>
   <si>
-    <t xml:space="preserve">dikobrazova@yandex.ru</t>
+    <t xml:space="preserve">offen87@mail.r8</t>
   </si>
   <si>
     <t xml:space="preserve">Гражданство:_____             Город: Москва            Адрес: </t>
@@ -402,8 +371,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -600,172 +570,180 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -789,46 +767,46 @@
   <dimension ref="A1:IV98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.97777777777778"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="9.8962962962963"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="46.1555555555556"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.38888888888889"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.93703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.62222222222222"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.1925925925926"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.15185185185185"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.31111111111111"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.76296296296296"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.07407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.0925925925926"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.3296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.48888888888889"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.03703703703704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.81851851851852"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.3888888888889"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.25185185185185"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.5037037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.95925925925926"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="3.91851851851852"/>
-    <col collapsed="false" hidden="false" max="256" min="13" style="1" width="6.76296296296296"/>
-    <col collapsed="false" hidden="false" max="257" min="257" style="2" width="6.76296296296296"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="6.76296296296296"/>
+    <col collapsed="false" hidden="false" max="256" min="13" style="1" width="6.95925925925926"/>
+    <col collapsed="false" hidden="false" max="257" min="257" style="2" width="6.95925925925926"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="3" width="6.95925925925926"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
       <c r="IK1" s="0"/>
       <c r="IL1" s="0"/>
       <c r="IM1" s="0"/>
@@ -843,18 +821,20 @@
       <c r="IV1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
       <c r="O2" s="0"/>
@@ -872,23 +852,25 @@
       <c r="IV2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
       <c r="G3" s="0"/>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="6"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="8"/>
       <c r="IK3" s="0"/>
       <c r="IL3" s="0"/>
       <c r="IM3" s="0"/>
@@ -903,8 +885,18 @@
       <c r="IV3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="A4" s="0"/>
+      <c r="B4" s="0"/>
+      <c r="C4" s="0"/>
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
       <c r="O4" s="0"/>
@@ -922,19 +914,22 @@
       <c r="IV4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="6"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
       <c r="O5" s="0"/>
@@ -952,17 +947,20 @@
       <c r="IV5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="0"/>
       <c r="N6" s="0"/>
       <c r="O6" s="0"/>
@@ -980,22 +978,22 @@
       <c r="IV6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="6"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
       <c r="O7" s="0"/>
@@ -1013,22 +1011,22 @@
       <c r="IV7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="6"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
       <c r="O8" s="0"/>
@@ -1047,17 +1045,17 @@
     </row>
     <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="0"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
       <c r="O9" s="0"/>
@@ -1075,18 +1073,18 @@
       <c r="IV9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
@@ -1104,23 +1102,23 @@
       <c r="IV10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
       <c r="IK11" s="0"/>
       <c r="IL11" s="0"/>
       <c r="IM11" s="0"/>
@@ -1135,20 +1133,20 @@
       <c r="IV11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
       <c r="IK12" s="0"/>
       <c r="IL12" s="0"/>
       <c r="IM12" s="0"/>
@@ -1163,26 +1161,26 @@
       <c r="IV12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="0"/>
@@ -1203,26 +1201,26 @@
       <c r="IV13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="n">
+      <c r="A14" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="25" t="n">
+      <c r="F14" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="28" t="n">
-        <v>300</v>
-      </c>
-      <c r="H14" s="27" t="n">
+      <c r="G14" s="29" t="n">
+        <v>500</v>
+      </c>
+      <c r="H14" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="0"/>
@@ -1243,18 +1241,20 @@
       <c r="IV14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="24" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="25" t="n">
+      <c r="F15" s="26" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="28" t="n">
-        <v>300</v>
-      </c>
-      <c r="H15" s="27" t="n">
+      <c r="G15" s="29" t="n">
+        <v>500</v>
+      </c>
+      <c r="H15" s="28" t="n">
         <v>0</v>
       </c>
       <c r="I15" s="0"/>
@@ -1275,18 +1275,18 @@
       <c r="IV15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
       <c r="IK16" s="0"/>
       <c r="IL16" s="0"/>
       <c r="IM16" s="0"/>
@@ -1301,18 +1301,18 @@
       <c r="IV16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
       <c r="IK17" s="0"/>
       <c r="IL17" s="0"/>
       <c r="IM17" s="0"/>
@@ -1327,26 +1327,26 @@
       <c r="IV17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
       <c r="IK18" s="0"/>
       <c r="IL18" s="0"/>
       <c r="IM18" s="0"/>
@@ -1361,20 +1361,20 @@
       <c r="IV18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
       <c r="IK19" s="0"/>
       <c r="IL19" s="0"/>
       <c r="IM19" s="0"/>
@@ -1389,20 +1389,20 @@
       <c r="IV19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
       <c r="IK20" s="0"/>
       <c r="IL20" s="0"/>
       <c r="IM20" s="0"/>
@@ -1417,18 +1417,18 @@
       <c r="IV20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="IK21" s="0"/>
       <c r="IL21" s="0"/>
       <c r="IM21" s="0"/>
@@ -1443,20 +1443,20 @@
       <c r="IV21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
       <c r="IK22" s="0"/>
       <c r="IL22" s="0"/>
       <c r="IM22" s="0"/>
@@ -1471,24 +1471,24 @@
       <c r="IV22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="32"/>
+      <c r="C23" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
       <c r="IK23" s="0"/>
       <c r="IL23" s="0"/>
       <c r="IM23" s="0"/>
@@ -1503,22 +1503,22 @@
       <c r="IV23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
       <c r="IK24" s="0"/>
       <c r="IL24" s="0"/>
       <c r="IM24" s="0"/>
@@ -1533,22 +1533,22 @@
       <c r="IV24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="35" t="n">
-        <v>89269189938</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="B25" s="40" t="n">
+        <v>879671949559</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
       <c r="IK25" s="0"/>
       <c r="IL25" s="0"/>
       <c r="IM25" s="0"/>
@@ -1563,22 +1563,22 @@
       <c r="IV25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
       <c r="IK26" s="0"/>
       <c r="IL26" s="0"/>
       <c r="IM26" s="0"/>
@@ -1597,14 +1597,14 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
       <c r="IK27" s="0"/>
       <c r="IL27" s="0"/>
       <c r="IM27" s="0"/>
@@ -1619,20 +1619,20 @@
       <c r="IV27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
       <c r="IK28" s="0"/>
       <c r="IL28" s="0"/>
       <c r="IM28" s="0"/>
@@ -1647,20 +1647,16 @@
       <c r="IV28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
       <c r="IK29" s="2"/>
       <c r="IL29" s="2"/>
       <c r="IM29" s="2"/>
@@ -1683,10 +1679,6 @@
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="0"/>
-      <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
       <c r="IK30" s="2"/>
       <c r="IL30" s="2"/>
       <c r="IM30" s="2"/>
@@ -1709,10 +1701,6 @@
       <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="0"/>
-      <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
       <c r="IK31" s="2"/>
       <c r="IL31" s="2"/>
       <c r="IM31" s="2"/>
@@ -1727,20 +1715,16 @@
       <c r="IV31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="0"/>
-      <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
       <c r="IK32" s="2"/>
       <c r="IL32" s="2"/>
       <c r="IM32" s="2"/>

--- a/www/partners/orders/print_tmpl/act.xlsx
+++ b/www/partners/orders/print_tmpl/act.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t xml:space="preserve">Государственное бюджетное учреждение города Москвы </t>
   </si>
@@ -197,29 +197,6 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Сумма баллов</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Стоимость в руб.</t>
     </r>
     <r>
       <rPr>
@@ -570,7 +547,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -675,6 +652,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -688,6 +669,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -766,27 +751,27 @@
   </sheetPr>
   <dimension ref="A1:IV98"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.07407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.0925925925926"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="47.3296296296296"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.4444444444444"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.48888888888889"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="8.03703703703704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.81851851851852"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.3888888888889"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.25185185185185"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.5037037037037"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="6.95925925925926"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.17407407407407"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.2888888888889"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.5111111111111"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6407407407407"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.58518518518519"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.72962962962963"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.01481481481481"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.37407407407407"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.34814814814815"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.7"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.15185185185185"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="3.91851851851852"/>
-    <col collapsed="false" hidden="false" max="256" min="13" style="1" width="6.95925925925926"/>
-    <col collapsed="false" hidden="false" max="257" min="257" style="2" width="6.95925925925926"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="3" width="6.95925925925926"/>
+    <col collapsed="false" hidden="false" max="256" min="13" style="1" width="7.15185185185185"/>
+    <col collapsed="false" hidden="false" max="257" min="257" style="2" width="7.15185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="3" width="7.15185185185185"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -860,10 +845,10 @@
       <c r="D3" s="8"/>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="H3" s="0"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="10"/>
@@ -1142,7 +1127,7 @@
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -1180,9 +1165,7 @@
       <c r="G13" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="25" t="s">
-        <v>19</v>
-      </c>
+      <c r="H13" s="26"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
@@ -1201,28 +1184,26 @@
       <c r="IV13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="n">
+      <c r="A14" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28" t="s">
+      <c r="E14" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="26" t="n">
+      <c r="F14" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="29" t="n">
+      <c r="G14" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="H14" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="H14" s="31"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
@@ -1246,17 +1227,15 @@
       <c r="C15" s="0"/>
       <c r="D15" s="13"/>
       <c r="E15" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="26" t="n">
+        <v>22</v>
+      </c>
+      <c r="F15" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="29" t="n">
+      <c r="G15" s="30" t="n">
         <v>500</v>
       </c>
-      <c r="H15" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="H15" s="31"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
@@ -1280,13 +1259,13 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
       <c r="IK16" s="0"/>
       <c r="IL16" s="0"/>
       <c r="IM16" s="0"/>
@@ -1306,13 +1285,13 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
       <c r="IK17" s="0"/>
       <c r="IL17" s="0"/>
       <c r="IM17" s="0"/>
@@ -1327,26 +1306,26 @@
       <c r="IV17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="C18" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>26</v>
-      </c>
       <c r="D18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
       <c r="IK18" s="0"/>
       <c r="IL18" s="0"/>
       <c r="IM18" s="0"/>
@@ -1361,8 +1340,8 @@
       <c r="IV18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="s">
-        <v>27</v>
+      <c r="A19" s="36" t="s">
+        <v>26</v>
       </c>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1389,7 +1368,7 @@
       <c r="IV19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="37" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="8"/>
@@ -1444,7 +1423,7 @@
     </row>
     <row r="22" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1471,15 +1450,15 @@
       <c r="IV22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="36" t="s">
-        <v>29</v>
+      <c r="A23" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="38" t="s">
+        <v>28</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1503,12 +1482,12 @@
       <c r="IV23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40" t="s">
         <v>30</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38" t="s">
-        <v>31</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
@@ -1533,13 +1512,13 @@
       <c r="IV24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="40" t="n">
+      <c r="A25" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="42" t="n">
         <v>879671949559</v>
       </c>
-      <c r="C25" s="40"/>
+      <c r="C25" s="42"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1563,13 +1542,13 @@
       <c r="IV25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="41"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1619,16 +1598,16 @@
       <c r="IV27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="A28" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1647,16 +1626,16 @@
       <c r="IV28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="A29" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
       <c r="IK29" s="2"/>
       <c r="IL29" s="2"/>
       <c r="IM29" s="2"/>
@@ -1715,16 +1694,16 @@
       <c r="IV31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="A32" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
       <c r="IK32" s="2"/>
       <c r="IL32" s="2"/>
       <c r="IM32" s="2"/>
@@ -1774,7 +1753,7 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A12:G12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A23:B23"/>

--- a/www/partners/orders/print_tmpl/act.xlsx
+++ b/www/partners/orders/print_tmpl/act.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t xml:space="preserve">Государственное бюджетное учреждение города Москвы </t>
   </si>
@@ -31,13 +31,13 @@
     <t xml:space="preserve">г. Москва </t>
   </si>
   <si>
-    <t xml:space="preserve">20 июня 2017</t>
+    <t xml:space="preserve">7 июля 2017</t>
   </si>
   <si>
     <t xml:space="preserve">Центр выдачи поощрений:</t>
   </si>
   <si>
-    <t xml:space="preserve">МФЦ Лианозово Москва, ул. Абрамцевская, д.3</t>
+    <t xml:space="preserve">На электронную почту </t>
   </si>
   <si>
     <r>
@@ -129,7 +129,7 @@
     <t xml:space="preserve">АКТ ПРИЕМА-ПЕРЕДАЧИ</t>
   </si>
   <si>
-    <t xml:space="preserve">по заказу № 654505  от 20 июня 2017</t>
+    <t xml:space="preserve">по заказу № 673582  от 7 июля 2017</t>
   </si>
   <si>
     <t xml:space="preserve">№ п/п</t>
@@ -210,13 +210,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Футболка детская зелёная 4XS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AКТА-654505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Штука</t>
+    <t xml:space="preserve">Парковочное пространство</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AКТА-673582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 парковочных баллов</t>
   </si>
   <si>
     <t xml:space="preserve">Итого:</t>
@@ -267,7 +267,7 @@
     <t xml:space="preserve">Вышеперечисленный товар принял. Претензий по составу, размеру, количеству и качеству  не имею. Осведомлен, что товар обмену и возврату не подлежит.</t>
   </si>
   <si>
-    <t xml:space="preserve">Васильева Елена Алексеевна</t>
+    <t xml:space="preserve">сидяков вячеслав юрьевич</t>
   </si>
   <si>
     <t xml:space="preserve">подпись</t>
@@ -279,16 +279,13 @@
     <t xml:space="preserve">Тел:</t>
   </si>
   <si>
+    <t xml:space="preserve"> 8 905 573 12 65</t>
+  </si>
+  <si>
     <t xml:space="preserve">Email:</t>
   </si>
   <si>
-    <t xml:space="preserve">offen87@mail.r8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гражданство:_____             Город: Москва            Адрес: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">заполняется в соответствии с паспортными данными</t>
+    <t xml:space="preserve">s.slawva@rambler.ru</t>
   </si>
   <si>
     <r>
@@ -644,6 +641,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,10 +653,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -672,10 +669,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -726,6 +719,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -752,26 +749,26 @@
   <dimension ref="A1:IV98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.17407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.2888888888889"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.5111111111111"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6407407407407"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.58518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.72962962962963"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.01481481481481"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.37407407407407"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.34814814814815"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.7"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.15185185185185"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.27037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.4851851851852"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.5481481481482"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.837037037037"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.68518518518519"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.84074074074074"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.21111111111111"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.6037037037037"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.44814814814815"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.8962962962963"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.25185185185185"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="3.91851851851852"/>
-    <col collapsed="false" hidden="false" max="256" min="13" style="1" width="7.15185185185185"/>
-    <col collapsed="false" hidden="false" max="257" min="257" style="2" width="7.15185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="3" width="7.15185185185185"/>
+    <col collapsed="false" hidden="false" max="256" min="13" style="1" width="7.25185185185185"/>
+    <col collapsed="false" hidden="false" max="257" min="257" style="2" width="7.25185185185185"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="3" width="7.25185185185185"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1127,7 +1124,7 @@
       <c r="E12" s="23"/>
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -1146,26 +1143,26 @@
       <c r="IV12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
@@ -1201,9 +1198,9 @@
         <v>1</v>
       </c>
       <c r="G14" s="30" t="n">
-        <v>500</v>
-      </c>
-      <c r="H14" s="31"/>
+        <v>667</v>
+      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
@@ -1226,16 +1223,16 @@
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="26" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="27" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="30" t="n">
-        <v>500</v>
-      </c>
-      <c r="H15" s="31"/>
+        <v>667</v>
+      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
@@ -1259,13 +1256,13 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
       <c r="IK16" s="0"/>
       <c r="IL16" s="0"/>
       <c r="IM16" s="0"/>
@@ -1285,13 +1282,13 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
       <c r="IK17" s="0"/>
       <c r="IL17" s="0"/>
       <c r="IM17" s="0"/>
@@ -1306,26 +1303,26 @@
       <c r="IV17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="8"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
       <c r="IK18" s="0"/>
       <c r="IL18" s="0"/>
       <c r="IM18" s="0"/>
@@ -1340,7 +1337,7 @@
       <c r="IV18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="21"/>
@@ -1368,7 +1365,7 @@
       <c r="IV19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="36" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="8"/>
@@ -1450,11 +1447,11 @@
       <c r="IV22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="38" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="37" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -1482,11 +1479,11 @@
       <c r="IV23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="40" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="39" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="21"/>
@@ -1512,13 +1509,13 @@
       <c r="IV24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="42" t="n">
-        <v>879671949559</v>
-      </c>
-      <c r="C25" s="42"/>
+      <c r="B25" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="41"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
@@ -1542,13 +1539,13 @@
       <c r="IV25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="43" t="s">
+      <c r="A26" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="B26" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="42"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
@@ -1598,16 +1595,14 @@
       <c r="IV27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
@@ -1626,16 +1621,14 @@
       <c r="IV28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
       <c r="IK29" s="2"/>
       <c r="IL29" s="2"/>
       <c r="IM29" s="2"/>
@@ -1695,7 +1688,7 @@
     </row>
     <row r="32" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>

--- a/www/partners/orders/print_tmpl/act.xlsx
+++ b/www/partners/orders/print_tmpl/act.xlsx
@@ -658,7 +658,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -749,26 +749,26 @@
   <dimension ref="A1:IV98"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.27037037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.4851851851852"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.5481481481482"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.837037037037"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.68518518518519"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.84074074074074"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.21111111111111"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.6037037037037"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.44814814814815"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.8962962962963"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.25185185185185"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="6.37037037037037"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="42.5296296296296"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.1296296296296"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="5.78148148148148"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="7.93703703703704"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="9.40740740740741"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="9.8"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="7.54444444444444"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.0925925925926"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="7.34814814814815"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="3.91851851851852"/>
-    <col collapsed="false" hidden="false" max="256" min="13" style="1" width="7.25185185185185"/>
-    <col collapsed="false" hidden="false" max="257" min="257" style="2" width="7.25185185185185"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="3" width="7.25185185185185"/>
+    <col collapsed="false" hidden="false" max="256" min="13" style="1" width="7.34814814814815"/>
+    <col collapsed="false" hidden="false" max="257" min="257" style="2" width="7.34814814814815"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="3" width="7.34814814814815"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
